--- a/Intento/Cartera/corr.xlsx
+++ b/Intento/Cartera/corr.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AR44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,142 +374,212 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>30CLP</t>
+          <t>30#CLP</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>90CLP</t>
+          <t>90#CLP</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>180CLP</t>
+          <t>180#CLP</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>360CLP</t>
+          <t>360#CLP</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>720CLP</t>
+          <t>720#CLP</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>1080CLP</t>
+          <t>1080#CLP</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>1440CLP</t>
+          <t>1440#CLP</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>1800CLP</t>
+          <t>1800#CLP</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2520CLP</t>
+          <t>2520#CLP</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>3240CLP</t>
+          <t>3240#CLP</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>3600CLP</t>
+          <t>3600#CLP</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>5400CLP</t>
+          <t>5400#CLP</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>7200CLP</t>
+          <t>7200#CLP</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>10800CLP</t>
+          <t>10800#CLP</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>30AAACLP</t>
+          <t>30#UF</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>90AAACLP</t>
+          <t>90#UF</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>180AAACLP</t>
+          <t>180#UF</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>360AAACLP</t>
+          <t>360#UF</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>720AAACLP</t>
+          <t>720#UF</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>1080AAACLP</t>
+          <t>1080#UF</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>1440AAACLP</t>
+          <t>1440#UF</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>1800AAACLP</t>
+          <t>1800#UF</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>2520AAACLP</t>
+          <t>2520#UF</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>3240AAACLP</t>
+          <t>3240#UF</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>3600AAACLP</t>
+          <t>3600#UF</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>5400AAACLP</t>
+          <t>5400#UF</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>7200AAACLP</t>
+          <t>7200#UF</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>10800AAACLP</t>
+          <t>10800#UF</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>30#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>90#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>180#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>360#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>720#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1080#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1440#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1800#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2520#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>3240#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>3600#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>5400#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>7200#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>10800#CLP#AAA</t>
         </is>
       </c>
     </row>
@@ -519,2610 +589,5846 @@
           <t>BSANTANDER</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.07959039961774064</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.1924282117144368</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.05671702896860618</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.06684221263266191</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1385463674625542</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1388475307873758</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1224892744917367</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1540839608762065</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.1349741730149102</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.150104299368778</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1559637200035684</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.2142119316928724</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.156475195355096</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.1534997171422471</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.04949870551527301</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.1093784062528329</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.167946429346591</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1546048407559893</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.08916068577986874</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.04127204083510605</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0455868600644799</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.06466217908980558</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.1433392667548352</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.1765537799712086</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.1601594764558028</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.1202166935160771</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.1969258699136168</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.2001196651944672</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.08820188174013854</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.0904437707376276</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.08877475533961277</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.07356719788674235</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.09591589880388676</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.1423411928487723</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.1739893091625292</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.192036890431505</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.2085583211772837</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.2149938939330899</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.2167260466452376</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.2202879716892365</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.2211791034310714</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2215175574801173</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>30CLP</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>30#CLP</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.07959039961774064</v>
+      </c>
       <c r="C3" t="n">
-        <v>1.000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7576924229225843</v>
+        <v>0.7391723559278393</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6863515082301703</v>
+        <v>0.555116422258726</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2630591630721116</v>
+        <v>0.591608520853862</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4018973517578053</v>
+        <v>0.05910842726156099</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3747210779849542</v>
+        <v>-0.01232397774802591</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3496327870938872</v>
+        <v>-0.03096400210213059</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3940090745156058</v>
+        <v>-0.04801108541582781</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3435443218307379</v>
+        <v>-0.08141724292904935</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4344445102452761</v>
+        <v>-0.1147261644657223</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4043480159287258</v>
+        <v>-0.1108553090173237</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3712791144248018</v>
+        <v>-0.1457128099366374</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2705254677777477</v>
+        <v>-0.1527101471481992</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2633186701112119</v>
+        <v>-0.1526190758718619</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1713299083214927</v>
+        <v>0.2809518692760012</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02543743063935954</v>
+        <v>0.3903367120751146</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.1259531129501853</v>
+        <v>0.3724730459998141</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.09749760598989521</v>
+        <v>0.3976569785580332</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.00700049121066353</v>
+        <v>0.0003107130858602002</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03844994345846684</v>
+        <v>-0.001003107032591482</v>
       </c>
       <c r="W3" t="n">
-        <v>0.06543608604511521</v>
+        <v>-0.06940118959079163</v>
       </c>
       <c r="X3" t="n">
-        <v>0.08372118246133198</v>
+        <v>-0.1607675047543919</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1080130644860972</v>
+        <v>-0.1127991311094477</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1235122194235965</v>
+        <v>-0.1198429218213555</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1291864462603457</v>
+        <v>-0.1295675805387267</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1460669273735279</v>
+        <v>-0.1312716281171332</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1538026578106408</v>
+        <v>-0.1015341837561302</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.1605630506866121</v>
+        <v>-0.1000782711520775</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.1056328399517429</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.08768086306010059</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.04115650241248087</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.06206454213343298</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.119933701812872</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.1129642040402703</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.09766180327294938</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.08410199424197271</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.06513478419968172</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.05349120267858654</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.04931238886742638</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.03667313624329657</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.03039195917686085</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.0242007891461073</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>90CLP</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>90#CLP</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.1924282117144368</v>
+      </c>
       <c r="C4" t="n">
-        <v>0.7576924229225844</v>
+        <v>0.7391723559278393</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7299397900592054</v>
+        <v>0.7284359484297913</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3722712069438687</v>
+        <v>0.7058229709852485</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1706791181895252</v>
+        <v>0.1467811410888409</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08008079530031879</v>
+        <v>0.1054097304673993</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04856316231315864</v>
+        <v>0.07185537771553327</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1418650739043457</v>
+        <v>0.05572051731726953</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1990336601783655</v>
+        <v>0.02863220747006035</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1745257039255387</v>
+        <v>0.01493447012320329</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2126009445384195</v>
+        <v>0.01011225298348738</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2193761789051295</v>
+        <v>-0.02894217462755597</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03900008657087013</v>
+        <v>-0.02625578118256146</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03324287161055923</v>
+        <v>-0.02607724031702384</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.04170660856072896</v>
+        <v>0.1627008638002303</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.01591940960430747</v>
+        <v>0.4594618885299313</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.05185630705931098</v>
+        <v>0.3058145046799432</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.1306513668479823</v>
+        <v>0.2529335732620563</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.115527957080256</v>
+        <v>0.1573366225277975</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.0816005826523413</v>
+        <v>0.09394152573083497</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.05719864927559524</v>
+        <v>0.002329690059419306</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.03884861077623083</v>
+        <v>-0.06376184710068947</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.01114332757054905</v>
+        <v>-0.03500815300362625</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.009416167373193864</v>
+        <v>-0.03768220228047601</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0176943969186146</v>
+        <v>-0.01607379060221399</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.04559726028324284</v>
+        <v>-0.02820653264952025</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.06077167560342359</v>
+        <v>-0.0317289080725403</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.07624565386108617</v>
+        <v>-0.03187319889219187</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.02873755939129931</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.01215002569206822</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.02028474860014747</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.06566206008031332</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.04548678325508265</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.002165433182188496</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.03927984358905354</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.06428462876712056</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.09289893046207558</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.1078033471012783</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.1127385241863546</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.1264636292928137</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.132654655650551</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.1383702499152221</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>180CLP</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>180#CLP</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.0567170289686062</v>
+      </c>
       <c r="C5" t="n">
-        <v>0.6863515082301703</v>
+        <v>0.555116422258726</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7299397900592055</v>
+        <v>0.7284359484297913</v>
       </c>
       <c r="E5" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4589678721832025</v>
+        <v>0.7982861663700993</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5515200454813312</v>
+        <v>0.1833038531705142</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4489345301915955</v>
+        <v>0.1327841282727268</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3999933802159061</v>
+        <v>0.09758688007558575</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3999005433378577</v>
+        <v>0.09656352098958963</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2578266187776863</v>
+        <v>0.05728176257928536</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2823038997100208</v>
+        <v>0.02754833208291817</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3218327476901923</v>
+        <v>0.03615636238163727</v>
       </c>
       <c r="N5" t="n">
-        <v>0.09619266568756898</v>
+        <v>0.007402833813806485</v>
       </c>
       <c r="O5" t="n">
-        <v>0.240806595440805</v>
+        <v>-0.01549574392174861</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2392381583911997</v>
+        <v>-0.01683797857553703</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.0522603328758371</v>
+        <v>-0.01162657355125591</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.08664958427492289</v>
+        <v>0.2187807106727609</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.1113251147771306</v>
+        <v>0.1683462319708875</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.1480535303825519</v>
+        <v>0.140232740149972</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.1020337205606933</v>
+        <v>0.0723506221201647</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.07278022954084321</v>
+        <v>0.07439118657168899</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.05473988213001495</v>
+        <v>-0.01069530673592567</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.04203730190356184</v>
+        <v>-0.009338706440280604</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.02364145202327883</v>
+        <v>-0.01877668265151857</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.01017200307842969</v>
+        <v>-0.04713355654642034</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.004730547754476994</v>
+        <v>-0.01460232096393024</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01382138041139981</v>
+        <v>-0.005359213700397563</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.02408803877153103</v>
+        <v>-0.03675744967824929</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.03470858940790051</v>
+        <v>-0.03817676608547307</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.01946151041196422</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.03953069137551771</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.07546340775295309</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.1234049894330285</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.1463428678872813</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.1539009393371153</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.1528553235690305</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.1483516038886292</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.138652471329706</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.1312339825232321</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.1283430427837216</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.1189356070462984</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.1139128143712387</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.1087484748846631</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>360CLP</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>360#CLP</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.06684221263266193</v>
+      </c>
       <c r="C6" t="n">
-        <v>0.2630591630721116</v>
+        <v>0.591608520853862</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3722712069438687</v>
+        <v>0.7058229709852485</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4589678721832025</v>
+        <v>0.7982861663700993</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999999999999978</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3426274335173</v>
+        <v>0.323137812054602</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2246607334714108</v>
+        <v>0.2769710531930815</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1294186331255186</v>
+        <v>0.2411967091290168</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1499679293506382</v>
+        <v>0.2738674339854333</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1855753842235446</v>
+        <v>0.2432351785073665</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2644846429014733</v>
+        <v>0.2141200531615957</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2691457224451815</v>
+        <v>0.2063502327624918</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05174057092930062</v>
+        <v>0.1532502201930593</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1616284808212371</v>
+        <v>0.1455765540040421</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1623225461686505</v>
+        <v>0.1453961261756055</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1721181575435384</v>
+        <v>0.08573439352103025</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.06444075326998917</v>
+        <v>0.4023532552796663</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.02506348091660233</v>
+        <v>0.2787712318398323</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.04452813817637847</v>
+        <v>0.4992281983928435</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.06796001219436607</v>
+        <v>0.246821546672471</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.07357001857047969</v>
+        <v>0.3239753847602497</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.07762480898027999</v>
+        <v>0.1950941893165093</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.08190691698283314</v>
+        <v>0.128665363535821</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.09012680215900482</v>
+        <v>0.1662968996022767</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.09643964673943307</v>
+        <v>0.121146033845344</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.09881280821702179</v>
+        <v>0.1433157411538532</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.1055336668657293</v>
+        <v>0.1714756574229147</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.1081601336213948</v>
+        <v>0.1851641940482036</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.1099660049578581</v>
+        <v>0.1854988959568986</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.09233012994926107</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.06744281191679263</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.01085149046793457</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.1024858199326767</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0.1720208107915241</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.1765719571751611</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-0.167052762857902</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>-0.155724938468245</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-0.1373957827328276</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-0.1250950434909873</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-0.12051707021248</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>-0.1061961953297859</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-0.09883066428849535</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>-0.09141788119764917</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>720CLP</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>720#CLP</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1385463674625541</v>
+      </c>
       <c r="C7" t="n">
-        <v>0.4018973517578053</v>
+        <v>0.05910842726156101</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1706791181895251</v>
+        <v>0.1467811410888409</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5515200454813312</v>
+        <v>0.1833038531705142</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3426274335173</v>
+        <v>0.323137812054602</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9396906157778753</v>
+        <v>0.9756875476266639</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8783394776496162</v>
+        <v>0.9535267329434286</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8343565901321924</v>
+        <v>0.9410009747682175</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6055571929285847</v>
+        <v>0.9199773107281024</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6387113303078811</v>
+        <v>0.8860707075249487</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5889831147388368</v>
+        <v>0.8870827245770412</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4425427797043794</v>
+        <v>0.874428585765653</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5241623857009088</v>
+        <v>0.8742524770749817</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5185318123520607</v>
+        <v>0.8736500899969036</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0985446977209649</v>
+        <v>-0.141323328710773</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.05830626627311995</v>
+        <v>0.01969194568431263</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.210231491364625</v>
+        <v>0.1089684479661338</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.2004014726758077</v>
+        <v>0.1826005734475391</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.09691167912613602</v>
+        <v>0.6780581320027439</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.07530607779817532</v>
+        <v>0.7571900263449733</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.06948739928278103</v>
+        <v>0.8417340138953532</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.06842034902875715</v>
+        <v>0.8366110212854923</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.0701442779978108</v>
+        <v>0.8759980612621023</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.07230284939854102</v>
+        <v>0.8571993914733422</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.07311597932039594</v>
+        <v>0.8640918047179664</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.07499337761930736</v>
+        <v>0.8374711551147352</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.07525120306507141</v>
+        <v>0.8505095137873502</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.0748495449562354</v>
+        <v>0.8502313144405782</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.004024377201137084</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.00730854042073065</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.02647931367607348</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.05185470313234827</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.07091076550358844</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.08763683144814516</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.09756881938680988</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.1022450142085788</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.10506082407158</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.1051960127300116</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.1049960919024285</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.1036700260130574</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.1026330183933597</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.1013787531155775</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>1080CLP</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>1080#CLP</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1388475307873758</v>
+      </c>
       <c r="C8" t="n">
-        <v>0.3747210779849541</v>
+        <v>-0.0123239777480259</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08008079530031875</v>
+        <v>0.1054097304673993</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4489345301915954</v>
+        <v>0.1327841282727268</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2246607334714107</v>
+        <v>0.2769710531930815</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9396906157778753</v>
+        <v>0.9756875476266638</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999999999999987</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9143570274895899</v>
+        <v>0.9841070583780741</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8725396575543352</v>
+        <v>0.974906953561625</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6107192980925531</v>
+        <v>0.9619553907053496</v>
       </c>
       <c r="L8" t="n">
-        <v>0.642891787052753</v>
+        <v>0.9412583475213248</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6563768500892722</v>
+        <v>0.9421631684172654</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4991168461011918</v>
+        <v>0.9293964346729779</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5544643422843859</v>
+        <v>0.9298545878394632</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5477032445063187</v>
+        <v>0.9292647256817961</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1775919217978585</v>
+        <v>-0.1565205873090341</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.02004542192665848</v>
+        <v>-0.003490034226939595</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.2196648204149769</v>
+        <v>0.05109004423453921</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.1847902777797771</v>
+        <v>0.122662303690049</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.04229755972258879</v>
+        <v>0.7111317320861896</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.009885894083697709</v>
+        <v>0.7901751916386343</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0009301368204349867</v>
+        <v>0.8869838496256233</v>
       </c>
       <c r="X8" t="n">
-        <v>0.004912460121490647</v>
+        <v>0.8898691968582536</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.006112502480624316</v>
+        <v>0.9203452284223754</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.004812946789439126</v>
+        <v>0.9124907863880702</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.004017487247070554</v>
+        <v>0.9155206177582228</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0008018977619811607</v>
+        <v>0.8910184723775526</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.001115854715603586</v>
+        <v>0.8907912264378904</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.003145982656314307</v>
+        <v>0.8899025154954526</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.001509814128858992</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.01628807656532564</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.04482423758118798</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.07569741370665745</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.08344096597899089</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.09104236341970606</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.09499582455574403</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.09571077108400816</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.09392332520982191</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.09161055908338686</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.09059056195909292</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.08695386757593238</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.0848575457900811</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.08261378657921303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>1440CLP</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>1440#CLP</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1224892744917367</v>
+      </c>
       <c r="C9" t="n">
-        <v>0.3496327870938872</v>
+        <v>-0.03096400210213055</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0485631623131586</v>
+        <v>0.07185537771553328</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3999933802159061</v>
+        <v>0.09758688007558573</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1294186331255186</v>
+        <v>0.2411967091290168</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8783394776496162</v>
+        <v>0.9535267329434284</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9143570274895899</v>
+        <v>0.984107058378074</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8923251185225983</v>
+        <v>0.9864054711456818</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6109632473252592</v>
+        <v>0.9712685201945872</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6398751980232144</v>
+        <v>0.9552032540656332</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6702071889548991</v>
+        <v>0.9526731256389859</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5863476814870832</v>
+        <v>0.9348841195040999</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5253705712365827</v>
+        <v>0.9378519948428242</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5166079664548683</v>
+        <v>0.9374353759788935</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1421858303450048</v>
+        <v>-0.158889046310536</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.06808972565218244</v>
+        <v>-0.05496713495299248</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.2096127229136781</v>
+        <v>0.04499161625716655</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.1273501798723158</v>
+        <v>0.1043815525128684</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.0071938872683001</v>
+        <v>0.691902050610296</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01583682490471479</v>
+        <v>0.7773379508537505</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0227328636241959</v>
+        <v>0.8873293831037304</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02490740476356686</v>
+        <v>0.893889824546991</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02469511172193915</v>
+        <v>0.9230387447466154</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.02281616436912834</v>
+        <v>0.9265348896464288</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.02180580220369579</v>
+        <v>0.9285547374942931</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.01770734995211599</v>
+        <v>0.9045010545622355</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.01512997063637801</v>
+        <v>0.9038735755819588</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.01226125814375523</v>
+        <v>0.9029738097303303</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.01342177539723864</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.001659551733541087</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.02756744008869634</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.06244236744563285</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.08461468111760377</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.1024135277078937</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.1129557615011494</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.1177715558917672</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.120339491080587</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.1201230633874335</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.1197656124941504</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.1178720548975253</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.1165053247150937</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.11489676484908</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>1800CLP</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>1800#CLP</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1540839608762065</v>
+      </c>
       <c r="C10" t="n">
-        <v>0.3940090745156058</v>
+        <v>-0.04801108541582781</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1418650739043457</v>
+        <v>0.05572051731726951</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3999005433378577</v>
+        <v>0.09656352098958973</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1499679293506382</v>
+        <v>0.2738674339854333</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8343565901321923</v>
+        <v>0.9410009747682175</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8725396575543352</v>
+        <v>0.9749069535616249</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8923251185225983</v>
+        <v>0.9864054711456818</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6347762835797514</v>
+        <v>0.9851696646669204</v>
       </c>
       <c r="L10" t="n">
-        <v>0.624150733399506</v>
+        <v>0.9723801821549831</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7145776480087626</v>
+        <v>0.9726023982511071</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5574159745487026</v>
+        <v>0.9553711954050365</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5034822167959156</v>
+        <v>0.9509675706290822</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4951549480942553</v>
+        <v>0.9502653917006733</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1711364690887642</v>
+        <v>-0.1298377748631567</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.002627933084444392</v>
+        <v>-0.003238506804270869</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.1793932546383919</v>
+        <v>0.04031210375708461</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.1555520716913752</v>
+        <v>0.152661869743168</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.02704026640240311</v>
+        <v>0.6968916060690055</v>
       </c>
       <c r="V10" t="n">
-        <v>0.009519964384084723</v>
+        <v>0.7896768879672663</v>
       </c>
       <c r="W10" t="n">
-        <v>0.02580188460427741</v>
+        <v>0.8926487209972114</v>
       </c>
       <c r="X10" t="n">
-        <v>0.03510300032011199</v>
+        <v>0.8972800819092673</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.04572780096547067</v>
+        <v>0.9432340522029371</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.05174551726563681</v>
+        <v>0.9418490485628072</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0538423135532067</v>
+        <v>0.944435931806158</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.05982094079798057</v>
+        <v>0.9257380951304035</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.06243295547476133</v>
+        <v>0.9264704372185437</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.06461655306964183</v>
+        <v>0.9256021604016861</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.0002358172416490809</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-0.01690247799084829</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-0.04621922490128735</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-0.08553252266809996</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>-0.1158770809222237</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-0.1412445473355016</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-0.1557569651703073</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0.1622708894429837</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-0.1656353970099193</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-0.1652376370541977</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-0.1647106411620062</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>-0.1620009095563077</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>-0.1600695845999374</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>-0.1578068677960102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2520CLP</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>2520#CLP</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1349741730149102</v>
+      </c>
       <c r="C11" t="n">
-        <v>0.3435443218307379</v>
+        <v>-0.08141724292904935</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1990336601783655</v>
+        <v>0.02863220747006032</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2578266187776863</v>
+        <v>0.05728176257928531</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1855753842235446</v>
+        <v>0.2432351785073665</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6055571929285847</v>
+        <v>0.9199773107281024</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6107192980925531</v>
+        <v>0.9619553907053495</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6109632473252592</v>
+        <v>0.9712685201945872</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6347762835797514</v>
+        <v>0.9851696646669206</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7077018833545796</v>
+        <v>0.9826125801270711</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6757903826252918</v>
+        <v>0.9828313520525647</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6761931281180894</v>
+        <v>0.9677369784544785</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4564284520579405</v>
+        <v>0.9685321835793064</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4457138980400561</v>
+        <v>0.9680597636697116</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1683563340946394</v>
+        <v>-0.110018906606492</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.2671776519938547</v>
+        <v>-0.02131451999761592</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.3836512869043727</v>
+        <v>-0.0154624725471836</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.02890236482379969</v>
+        <v>0.1104803100837146</v>
       </c>
       <c r="U11" t="n">
-        <v>0.155142993076122</v>
+        <v>0.7148978841051451</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1895380528656762</v>
+        <v>0.8005747993555379</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2037919656466293</v>
+        <v>0.9049086630034249</v>
       </c>
       <c r="X11" t="n">
-        <v>0.211621852646048</v>
+        <v>0.9134374332371726</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.218813921862928</v>
+        <v>0.9500366809425755</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.2202448809517001</v>
+        <v>0.9540116742321086</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.2198643765719355</v>
+        <v>0.9571137234976349</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.2145515730852925</v>
+        <v>0.9405039935769262</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.208989643654375</v>
+        <v>0.9338846974468176</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.201205668062907</v>
+        <v>0.9326950182368748</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.00260276894052109</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.0127800803254768</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.0386717253909527</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.07156796568124216</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.09133191681719939</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.1072455002732484</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.1160039213035796</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.1194660644483407</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.1203316762644386</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.1191517350654675</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.1184611912035965</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.1155970549873145</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.1137673225534657</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.1117142687877885</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>3240CLP</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>3240#CLP</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1501042993687781</v>
+      </c>
       <c r="C12" t="n">
-        <v>0.4344445102452762</v>
+        <v>-0.1147261644657223</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1745257039255387</v>
+        <v>0.01493447012320328</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2823038997100208</v>
+        <v>0.02754833208291818</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2644846429014734</v>
+        <v>0.2141200531615957</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6387113303078811</v>
+        <v>0.8860707075249487</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6428917870527531</v>
+        <v>0.9412583475213248</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6398751980232145</v>
+        <v>0.9552032540656332</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6241507333995061</v>
+        <v>0.9723801821549831</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7077018833545796</v>
+        <v>0.9826125801270711</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8248402384486945</v>
+        <v>0.9959429225130099</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7281268600893607</v>
+        <v>0.9805530596829377</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5825879856334163</v>
+        <v>0.97995093678511</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5716841911207283</v>
+        <v>0.9793639292448247</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1555413779847364</v>
+        <v>-0.1235054801179338</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.1176918329996088</v>
+        <v>0.004022075028815687</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.2570618118420145</v>
+        <v>-0.0245817854466818</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.125570712095261</v>
+        <v>0.107843377425935</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.01208749293409745</v>
+        <v>0.6542846940046168</v>
       </c>
       <c r="V12" t="n">
-        <v>0.01201119656144593</v>
+        <v>0.7464875402889216</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02279798610188735</v>
+        <v>0.8684414831120423</v>
       </c>
       <c r="X12" t="n">
-        <v>0.02973357416606827</v>
+        <v>0.8746697382814665</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.03931261839424684</v>
+        <v>0.9375656713011487</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.04585453857973389</v>
+        <v>0.9505501699772564</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.04834193302704616</v>
+        <v>0.9584463169704327</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.05603226513367465</v>
+        <v>0.937387215598165</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.05971923529646414</v>
+        <v>0.9377443498217883</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.06307344551157505</v>
+        <v>0.9368174678926733</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.02445148680900134</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.008735675150411262</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.01767567457128791</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.0506905117674715</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.06288298491932379</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.07313148998694725</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.07998677944891321</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.08316709051145404</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.08475740066664073</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.08448534865896561</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.08419252983636789</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.08274008719221769</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.08172129771037798</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.08053475144813474</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>3600CLP</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>3600#CLP</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1559637200035684</v>
+      </c>
       <c r="C13" t="n">
-        <v>0.4043480159287258</v>
+        <v>-0.1108553090173237</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2126009445384195</v>
+        <v>0.01011225298348735</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3218327476901922</v>
+        <v>0.03615636238163726</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2691457224451815</v>
+        <v>0.2063502327624918</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5889831147388369</v>
+        <v>0.8870827245770411</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6563768500892722</v>
+        <v>0.9421631684172652</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6702071889548991</v>
+        <v>0.9526731256389858</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7145776480087626</v>
+        <v>0.9726023982511068</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6757903826252917</v>
+        <v>0.9828313520525647</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8248402384486945</v>
+        <v>0.9959429225130099</v>
       </c>
       <c r="M13" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6858690687764568</v>
+        <v>0.9864085452656031</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5270696422816636</v>
+        <v>0.9826940782113888</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5162567083030472</v>
+        <v>0.9819631284905092</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1129881913180656</v>
+        <v>-0.1200850809525642</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.0858115439857091</v>
+        <v>-0.006464272885103984</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.2063692978246981</v>
+        <v>-0.03632613277175945</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.1007481723324227</v>
+        <v>0.09704886733414683</v>
       </c>
       <c r="U13" t="n">
-        <v>0.008467171113845512</v>
+        <v>0.6634350947816166</v>
       </c>
       <c r="V13" t="n">
-        <v>0.03557169423692088</v>
+        <v>0.7505579916928388</v>
       </c>
       <c r="W13" t="n">
-        <v>0.04796531183432835</v>
+        <v>0.8724426823797237</v>
       </c>
       <c r="X13" t="n">
-        <v>0.05543035883193495</v>
+        <v>0.8831408460294495</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0644851836663463</v>
+        <v>0.9454781661518715</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.06974953275168926</v>
+        <v>0.9571115531217239</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.07155449572659339</v>
+        <v>0.9622533467334731</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.07637939995481478</v>
+        <v>0.9399086217453945</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.07818301019261284</v>
+        <v>0.9312811536302915</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.07937747347089481</v>
+        <v>0.9299950782144918</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.00374850839416408</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.01719357526311097</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.03677296388697993</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.05200912750249947</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.05177072964561216</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.06066676066739691</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.06791103024136817</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.07173405000311925</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.07444392973059921</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.0749504490547054</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.07495124868335766</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.07442810987010122</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.07389275717171422</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.07319600076454499</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>5400CLP</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>5400#CLP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2142119316928723</v>
+      </c>
       <c r="C14" t="n">
-        <v>0.3712791144248018</v>
+        <v>-0.1457128099366374</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2193761789051295</v>
+        <v>-0.02894217462755598</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09619266568756898</v>
+        <v>0.007402833813806488</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05174057092930063</v>
+        <v>0.1532502201930593</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4425427797043794</v>
+        <v>0.874428585765653</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4991168461011918</v>
+        <v>0.9293964346729778</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5863476814870832</v>
+        <v>0.9348841195040999</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5574159745487024</v>
+        <v>0.9553711954050363</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6761931281180892</v>
+        <v>0.9677369784544785</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7281268600893607</v>
+        <v>0.9805530596829377</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6858690687764568</v>
+        <v>0.9864085452656028</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3856437396786649</v>
+        <v>0.987629491263924</v>
       </c>
       <c r="P14" t="n">
-        <v>0.3669896281256498</v>
+        <v>0.9864237770638541</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2117180472513249</v>
+        <v>-0.1344958454915821</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.120871957094171</v>
+        <v>0.009822024324505248</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.3109133871804229</v>
+        <v>0.003784119917108624</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.1390938293425054</v>
+        <v>0.08963811750804614</v>
       </c>
       <c r="U14" t="n">
-        <v>0.006947959776980607</v>
+        <v>0.6263449931192308</v>
       </c>
       <c r="V14" t="n">
-        <v>0.03968770518821758</v>
+        <v>0.7069618867869133</v>
       </c>
       <c r="W14" t="n">
-        <v>0.05575649201154463</v>
+        <v>0.8507975385283122</v>
       </c>
       <c r="X14" t="n">
-        <v>0.06676522320774067</v>
+        <v>0.8688565082256445</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.08234964346976713</v>
+        <v>0.9386937530334137</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.09284113789885932</v>
+        <v>0.9530274408722176</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.09674720607366416</v>
+        <v>0.956460017836789</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.1084156730046331</v>
+        <v>0.9285976245935094</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.1137178762413487</v>
+        <v>0.9281239119139764</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.1182840627851737</v>
+        <v>0.927183411140277</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>-0.009132948704664003</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>-0.0168897054122772</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>-0.02578966117825669</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>-0.02548040026613954</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>-0.02135941772073063</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>-0.03303477005931239</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>-0.04378375332523831</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>-0.05066164089772756</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>-0.05769019592386806</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>-0.06087408725274308</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>-0.06183998358447638</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>-0.06424809646770754</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>-0.06517585653970244</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>-0.06592518118409064</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>7200CLP</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>7200#CLP</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.156475195355096</v>
+      </c>
       <c r="C15" t="n">
-        <v>0.2705254677777477</v>
+        <v>-0.1527101471481991</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0390000865708701</v>
+        <v>-0.02625578118256144</v>
       </c>
       <c r="E15" t="n">
-        <v>0.240806595440805</v>
+        <v>-0.01549574392174861</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1616284808212372</v>
+        <v>0.1455765540040421</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5241623857009088</v>
+        <v>0.8742524770749817</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5544643422843859</v>
+        <v>0.9298545878394632</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5253705712365827</v>
+        <v>0.9378519948428242</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5034822167959158</v>
+        <v>0.9509675706290822</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4564284520579405</v>
+        <v>0.9685321835793064</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5825879856334163</v>
+        <v>0.97995093678511</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5270696422816636</v>
+        <v>0.9826940782113888</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3856437396786649</v>
+        <v>0.9876294912639237</v>
       </c>
       <c r="O15" t="n">
         <v>0.9999999999999993</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9997864203182533</v>
+        <v>0.9999695575902915</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.120536444871832</v>
+        <v>-0.1238465354762792</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.02987464089351094</v>
+        <v>0.01110027251231104</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.1995805091764896</v>
+        <v>-0.01894494598864829</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.1690422778906285</v>
+        <v>0.08119786897380288</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.05891764837024423</v>
+        <v>0.6406001228894719</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.03229121319493965</v>
+        <v>0.7204580021015713</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.01987294972247464</v>
+        <v>0.8659410018399046</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.01155197542651437</v>
+        <v>0.8746154677863773</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.000596851258298612</v>
+        <v>0.9372361644860471</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.009525261489272329</v>
+        <v>0.949171382245007</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.01310539264680871</v>
+        <v>0.9574748021039571</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.02509437193771247</v>
+        <v>0.9338643348876381</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.03155344699072719</v>
+        <v>0.9332901886231424</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.03808806318626068</v>
+        <v>0.9323214641626417</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.009433990071964278</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.0002069724313908352</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.01413983040066141</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.02584185777172473</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.02888599073712561</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0.03988744807430625</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.04907879327225024</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.05465430885907492</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.05996953687661762</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.06215257052240252</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.06276731801709438</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.06413675844933299</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.0645606236487615</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.06482082808838727</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>10800CLP</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>10800#CLP</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1534997171422472</v>
+      </c>
       <c r="C16" t="n">
-        <v>0.2633186701112119</v>
+        <v>-0.1526190758718619</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03324287161055926</v>
+        <v>-0.02607724031702385</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2392381583911997</v>
+        <v>-0.01683797857553705</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1623225461686505</v>
+        <v>0.1453961261756055</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5185318123520607</v>
+        <v>0.8736500899969036</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5477032445063188</v>
+        <v>0.9292647256817961</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5166079664548683</v>
+        <v>0.9374353759788935</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4951549480942553</v>
+        <v>0.9502653917006733</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4457138980400561</v>
+        <v>0.9680597636697116</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5716841911207284</v>
+        <v>0.9793639292448247</v>
       </c>
       <c r="M16" t="n">
-        <v>0.516256708303047</v>
+        <v>0.9819631284905092</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3669896281256498</v>
+        <v>0.9864237770638541</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9997864203182533</v>
+        <v>0.9999695575902915</v>
       </c>
       <c r="P16" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1162496773911966</v>
+        <v>-0.123293297363873</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.02772802879919126</v>
+        <v>0.01138527672066697</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.1940478220892689</v>
+        <v>-0.01976442345363685</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.1669790664007227</v>
+        <v>0.0815549961927354</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.05925274122386275</v>
+        <v>0.6412626073776572</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.03316414054351147</v>
+        <v>0.721138091580101</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.02104507861416171</v>
+        <v>0.8663394125749486</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.01295284012121251</v>
+        <v>0.8744320443701811</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.001159184624378342</v>
+        <v>0.9367601157346567</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.007514408514462562</v>
+        <v>0.9486192839015949</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01099710636126477</v>
+        <v>0.9570631525023788</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.02268703143676432</v>
+        <v>0.9337503967926583</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.02900528247371335</v>
+        <v>0.9331724596590235</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.03541426759225356</v>
+        <v>0.9322036853844435</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.01058888127712831</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.0007661454879237795</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>-0.01361325416634955</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>-0.02630390889129319</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>-0.03001693905004143</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>-0.04109496064021728</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>-0.05023907957543326</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>-0.05574728813000909</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>-0.06094852725445866</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>-0.06305342438249312</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>-0.06363886375479519</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>-0.06491598567074472</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>-0.06529204808830229</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>-0.06550395341399048</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>30AAACLP</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>30#UF</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.04949870551527301</v>
+      </c>
       <c r="C17" t="n">
-        <v>0.1713299083214927</v>
+        <v>0.2809518692760012</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04170660856072896</v>
+        <v>0.1627008638002303</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0522603328758371</v>
+        <v>-0.01162657355125594</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1721181575435384</v>
+        <v>0.08573439352103025</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0985446977209649</v>
+        <v>-0.141323328710773</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1775919217978585</v>
+        <v>-0.1565205873090341</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1421858303450048</v>
+        <v>-0.1588890463105359</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1711364690887642</v>
+        <v>-0.1298377748631567</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1683563340946394</v>
+        <v>-0.110018906606492</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1555413779847364</v>
+        <v>-0.1235054801179338</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1129881913180655</v>
+        <v>-0.1200850809525642</v>
       </c>
       <c r="N17" t="n">
-        <v>0.211718047251325</v>
+        <v>-0.1344958454915821</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1205364448718321</v>
+        <v>-0.1238465354762792</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1162496773911966</v>
+        <v>-0.123293297363873</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.9999999999999972</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R17" t="n">
-        <v>0.7147953351729436</v>
+        <v>0.4243529789456073</v>
       </c>
       <c r="S17" t="n">
-        <v>0.3767313833091278</v>
+        <v>0.1373379119807435</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1366297586503375</v>
+        <v>0.240316657284289</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0919404614727353</v>
+        <v>-0.007561743404392586</v>
       </c>
       <c r="V17" t="n">
-        <v>0.09769224946596286</v>
+        <v>-0.06363628563596274</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1030011298438055</v>
+        <v>-0.1487375675564696</v>
       </c>
       <c r="X17" t="n">
-        <v>0.1070054608125489</v>
+        <v>-0.1303955873687392</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.1123641642270198</v>
+        <v>-0.0857653216694037</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.1151559640923561</v>
+        <v>-0.05868295086099734</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.1158929756309071</v>
+        <v>-0.03833037633093566</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.1164923278363155</v>
+        <v>-0.03441687922880453</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1154863277352789</v>
+        <v>-0.037501751815011</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.1133804835718064</v>
+        <v>-0.03758570212236103</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.1655087071692405</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.1419489882309823</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.07929881202296352</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>-0.0644212591532274</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>-0.1544176776732706</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>-0.1570063292137441</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>-0.1455955201483183</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>-0.1335025095275364</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>-0.1149261215689154</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>-0.1028174755527022</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>-0.09836183255513754</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>-0.08456614115127842</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>-0.07754307155125181</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>-0.07051801525476938</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>90AAACLP</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>90#UF</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1093784062528329</v>
+      </c>
       <c r="C18" t="n">
-        <v>-0.02543743063935953</v>
+        <v>0.3903367120751145</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.01591940960430746</v>
+        <v>0.4594618885299311</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.08664958427492289</v>
+        <v>0.2187807106727609</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0644407532699892</v>
+        <v>0.4023532552796664</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.05830626627311992</v>
+        <v>0.01969194568431269</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0200454219266585</v>
+        <v>-0.003490034226939601</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.06808972565218244</v>
+        <v>-0.05496713495299248</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.002627933084444403</v>
+        <v>-0.003238506804270885</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.2671776519938547</v>
+        <v>-0.02131451999761591</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.1176918329996088</v>
+        <v>0.004022075028815688</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.0858115439857091</v>
+        <v>-0.006464272885103984</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.120871957094171</v>
+        <v>0.009822024324505248</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.02987464089351093</v>
+        <v>0.01110027251231104</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.02772802879919127</v>
+        <v>0.01138527672066695</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7147953351729436</v>
+        <v>0.4243529789456073</v>
       </c>
       <c r="R18" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="S18" t="n">
-        <v>0.7897362652134159</v>
+        <v>0.5916105406547806</v>
       </c>
       <c r="T18" t="n">
-        <v>0.05615167018884534</v>
+        <v>0.7015905330950176</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.2096388739586348</v>
+        <v>0.1213048101244262</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.2342843225598125</v>
+        <v>0.1265383203748963</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.2382282219670127</v>
+        <v>-0.02662657764551198</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.2378112332354728</v>
+        <v>-0.09695338642581654</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.2320212040063582</v>
+        <v>0.02436224810921699</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.2234429424312135</v>
+        <v>-0.009639548040400103</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.2189567649546079</v>
+        <v>0.02630423418531776</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.1995643346251348</v>
+        <v>0.04078572076080145</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.1862219149236764</v>
+        <v>0.09433045613890581</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.1704215767241478</v>
+        <v>0.09638620981113559</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.1297682302590473</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.09108973717988117</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.004064178928155257</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0.1660502658226534</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0.268675900389442</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.2788669186021564</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.2679520384409143</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.2530973133990431</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-0.2277050006490725</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.2101522438918925</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-0.2035464338592083</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-0.1826771712373181</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-0.1718399175940454</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>-0.1608716405317429</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>180AAACLP</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>180#UF</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.167946429346591</v>
+      </c>
       <c r="C19" t="n">
-        <v>-0.1259531129501853</v>
+        <v>0.3724730459998141</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.05185630705931096</v>
+        <v>0.3058145046799434</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1113251147771306</v>
+        <v>0.1683462319708875</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.02506348091660235</v>
+        <v>0.2787712318398323</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.210231491364625</v>
+        <v>0.1089684479661338</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.2196648204149769</v>
+        <v>0.05109004423453921</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2096127229136781</v>
+        <v>0.04499161625716655</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.179393254638392</v>
+        <v>0.04031210375708459</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.3836512869043727</v>
+        <v>-0.01546247254718358</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.2570618118420145</v>
+        <v>-0.0245817854466818</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.2063692978246981</v>
+        <v>-0.03632613277175945</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.310913387180423</v>
+        <v>0.003784119917108618</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.1995805091764896</v>
+        <v>-0.01894494598864826</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.1940478220892689</v>
+        <v>-0.01976442345363686</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3767313833091278</v>
+        <v>0.1373379119807434</v>
       </c>
       <c r="R19" t="n">
-        <v>0.7897362652134159</v>
+        <v>0.5916105406547806</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>0.504568639392045</v>
+        <v>0.6892806591226929</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1136644996931032</v>
+        <v>0.06933253881456776</v>
       </c>
       <c r="V19" t="n">
-        <v>0.03647655339447721</v>
+        <v>0.110552723723599</v>
       </c>
       <c r="W19" t="n">
-        <v>0.006135378049064479</v>
+        <v>0.0108382955847333</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.01034021551194098</v>
+        <v>-0.03983523922756073</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.02870473781116597</v>
+        <v>0.005969803061330245</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.03920349081875879</v>
+        <v>-0.008796738245635595</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.04297087663269145</v>
+        <v>-0.002392533093061052</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.05446083574622781</v>
+        <v>0.0233805135443767</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.06014047314540921</v>
+        <v>0.09147281142015957</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.06555976087937795</v>
+        <v>0.09423081888168459</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.3329755882868314</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.3014116336771529</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.2032583031529398</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>-0.06036423685289577</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>-0.2912126215345595</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>-0.3603443597123442</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>-0.3831662307693636</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>-0.3883677306263639</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>-0.3834410274925969</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>-0.3752991108037535</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>-0.3715807211887143</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>-0.3580217979410902</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>-0.3500718010382423</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>-0.3414914860641792</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>360AAACLP</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>360#UF</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1546048407559893</v>
+      </c>
       <c r="C20" t="n">
-        <v>-0.09749760598989521</v>
+        <v>0.3976569785580332</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1306513668479823</v>
+        <v>0.2529335732620563</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.1480535303825519</v>
+        <v>0.140232740149972</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.04452813817637847</v>
+        <v>0.4992281983928435</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.2004014726758077</v>
+        <v>0.1826005734475391</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.1847902777797771</v>
+        <v>0.122662303690049</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1273501798723158</v>
+        <v>0.1043815525128684</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.1555520716913753</v>
+        <v>0.152661869743168</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.02890236482379969</v>
+        <v>0.1104803100837146</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.125570712095261</v>
+        <v>0.1078433774259351</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.1007481723324228</v>
+        <v>0.09704886733414686</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.1390938293425054</v>
+        <v>0.08963811750804604</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.1690422778906285</v>
+        <v>0.08119786897380288</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.1669790664007227</v>
+        <v>0.08155499619273543</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1366297586503375</v>
+        <v>0.240316657284289</v>
       </c>
       <c r="R20" t="n">
-        <v>0.05615167018884538</v>
+        <v>0.7015905330950176</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5045686393920451</v>
+        <v>0.6892806591226929</v>
       </c>
       <c r="T20" t="n">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>0.8781420379300734</v>
+        <v>0.2356070103019318</v>
       </c>
       <c r="V20" t="n">
-        <v>0.8083926039315993</v>
+        <v>0.3368085093271917</v>
       </c>
       <c r="W20" t="n">
-        <v>0.7707536137171073</v>
+        <v>0.172954580543828</v>
       </c>
       <c r="X20" t="n">
-        <v>0.74549084467926</v>
+        <v>0.0546144214870664</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.7055524603406024</v>
+        <v>0.1681475219317146</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.6693926190242993</v>
+        <v>0.1181369052328551</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.6525457605682137</v>
+        <v>0.1204862180727369</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.5844692034713665</v>
+        <v>0.1667164679027739</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.5394437960412255</v>
+        <v>0.2329411215828188</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.4870387107131695</v>
+        <v>0.2354937673405794</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.2509193186633682</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.212665557640383</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.1109840252639174</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>-0.134588144611179</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>-0.3581435310394285</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>-0.4442472773867866</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>-0.478813469748003</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>-0.4900297418688483</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>-0.4895376534184709</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>-0.4824209619378559</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>-0.4788060300810878</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>-0.4647919278034437</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>-0.4562131460768168</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>-0.4467657598176905</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>720AAACLP</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>720#UF</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.08916068577986874</v>
+      </c>
       <c r="C21" t="n">
-        <v>-0.007000491210663541</v>
+        <v>0.0003107130858601946</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.115527957080256</v>
+        <v>0.1573366225277975</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.1020337205606933</v>
+        <v>0.0723506221201647</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.06796001219436605</v>
+        <v>0.2468215466724709</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.09691167912613602</v>
+        <v>0.6780581320027438</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.04229755972258879</v>
+        <v>0.7111317320861895</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.007193887268300107</v>
+        <v>0.691902050610296</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.02704026640240312</v>
+        <v>0.6968916060690055</v>
       </c>
       <c r="K21" t="n">
-        <v>0.155142993076122</v>
+        <v>0.7148978841051451</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.01208749293409744</v>
+        <v>0.6542846940046168</v>
       </c>
       <c r="M21" t="n">
-        <v>0.00846717111384551</v>
+        <v>0.6634350947816166</v>
       </c>
       <c r="N21" t="n">
-        <v>0.006947959776980606</v>
+        <v>0.6263449931192308</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.05891764837024423</v>
+        <v>0.6406001228894719</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.05925274122386275</v>
+        <v>0.6412626073776572</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0919404614727353</v>
+        <v>-0.007561743404392574</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.2096388739586348</v>
+        <v>0.1213048101244263</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1136644996931032</v>
+        <v>0.06933253881456776</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8781420379300734</v>
+        <v>0.2356070103019318</v>
       </c>
       <c r="U21" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="V21" t="n">
-        <v>0.9883161872389908</v>
+        <v>0.9226980592702615</v>
       </c>
       <c r="W21" t="n">
-        <v>0.9722283641582627</v>
+        <v>0.8350188877585653</v>
       </c>
       <c r="X21" t="n">
-        <v>0.9559404986132218</v>
+        <v>0.8210120982964164</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.9195963244234679</v>
+        <v>0.7497434855495765</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.8798794780991375</v>
+        <v>0.7216144361545916</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.8603869626173111</v>
+        <v>0.7102416315936029</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.7790001857997013</v>
+        <v>0.7102834172597517</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.7240453005346388</v>
+        <v>0.6509573643248825</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.6594604283263694</v>
+        <v>0.6478001472339786</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.05912619928804203</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.03664841596671747</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>-0.008017305578646881</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>-0.08680546654647935</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>-0.1463287641434534</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>-0.1745237239411459</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>-0.186898909927781</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>-0.1908090137804535</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>-0.1901201804871977</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>-0.1870814412848551</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>-0.185583273349992</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>-0.1798683708864441</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>-0.1764080698719697</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>-0.1726164427350155</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>1080AAACLP</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
+          <t>1080#UF</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.04127204083510608</v>
+      </c>
       <c r="C22" t="n">
-        <v>0.03844994345846683</v>
+        <v>-0.001003107032591481</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0816005826523413</v>
+        <v>0.09394152573083495</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.07278022954084322</v>
+        <v>0.07439118657168899</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.07357001857047969</v>
+        <v>0.3239753847602497</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.07530607779817532</v>
+        <v>0.7571900263449732</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.009885894083697739</v>
+        <v>0.7901751916386341</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01583682490471481</v>
+        <v>0.7773379508537505</v>
       </c>
       <c r="J22" t="n">
-        <v>0.009519964384084713</v>
+        <v>0.7896768879672663</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1895380528656762</v>
+        <v>0.8005747993555379</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01201119656144594</v>
+        <v>0.7464875402889218</v>
       </c>
       <c r="M22" t="n">
-        <v>0.03557169423692088</v>
+        <v>0.7505579916928388</v>
       </c>
       <c r="N22" t="n">
-        <v>0.03968770518821759</v>
+        <v>0.7069618867869133</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.03229121319493965</v>
+        <v>0.7204580021015714</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.03316414054351145</v>
+        <v>0.721138091580101</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.09769224946596286</v>
+        <v>-0.06363628563596271</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.2342843225598124</v>
+        <v>0.1265383203748963</v>
       </c>
       <c r="S22" t="n">
-        <v>0.03647655339447721</v>
+        <v>0.110552723723599</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8083926039315993</v>
+        <v>0.3368085093271918</v>
       </c>
       <c r="U22" t="n">
-        <v>0.9883161872389908</v>
+        <v>0.9226980592702615</v>
       </c>
       <c r="V22" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>0.9959729938620677</v>
+        <v>0.891664277464469</v>
       </c>
       <c r="X22" t="n">
-        <v>0.9870443277181717</v>
+        <v>0.8675945949568593</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.9594229659211178</v>
+        <v>0.8193631269345443</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.9247073380748745</v>
+        <v>0.7830215716414682</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.9069530346729813</v>
+        <v>0.7778868423135807</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.8304784412626152</v>
+        <v>0.8057564228745524</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.7776359891311042</v>
+        <v>0.7570956783206249</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.7147863188706308</v>
+        <v>0.7542362527258561</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.06567388760087148</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.02187290161350343</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>-0.06153190706528804</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>-0.1926083026823618</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>-0.2581285227131318</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>-0.2693348942322275</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>-0.2638413208032244</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>-0.2532849350303206</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>-0.2331976334394161</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>-0.2185810539133301</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>-0.2129787575100011</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>-0.1949988232693561</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>-0.185521047968085</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>-0.1758459125659302</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>1440AAACLP</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
+          <t>1440#UF</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0455868600644799</v>
+      </c>
       <c r="C23" t="n">
-        <v>0.06543608604511521</v>
+        <v>-0.06940118959079165</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.05719864927559524</v>
+        <v>0.002329690059419294</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.05473988213001496</v>
+        <v>-0.01069530673592574</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.07762480898027999</v>
+        <v>0.1950941893165093</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.06948739928278103</v>
+        <v>0.8417340138953532</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009301368204349806</v>
+        <v>0.8869838496256233</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0227328636241959</v>
+        <v>0.8873293831037306</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02580188460427741</v>
+        <v>0.8926487209972116</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2037919656466293</v>
+        <v>0.9049086630034247</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02279798610188735</v>
+        <v>0.8684414831120424</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04796531183432837</v>
+        <v>0.8724426823797237</v>
       </c>
       <c r="N23" t="n">
-        <v>0.05575649201154467</v>
+        <v>0.8507975385283122</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.01987294972247463</v>
+        <v>0.8659410018399046</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.0210450786141617</v>
+        <v>0.8663394125749486</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1030011298438055</v>
+        <v>-0.1487375675564697</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.2382282219670127</v>
+        <v>-0.02662657764551198</v>
       </c>
       <c r="S23" t="n">
-        <v>0.006135378049064439</v>
+        <v>0.01083829558473329</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7707536137171073</v>
+        <v>0.172954580543828</v>
       </c>
       <c r="U23" t="n">
-        <v>0.9722283641582627</v>
+        <v>0.8350188877585653</v>
       </c>
       <c r="V23" t="n">
-        <v>0.9959729938620677</v>
+        <v>0.891664277464469</v>
       </c>
       <c r="W23" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>0.997250803030574</v>
+        <v>0.9664347964334774</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.9790541865981227</v>
+        <v>0.9452545052092874</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.9511599037487073</v>
+        <v>0.9200402579208109</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.9360749825898249</v>
+        <v>0.9145477247699489</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.8682032408834417</v>
+        <v>0.9089534323626696</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.8197591745961811</v>
+        <v>0.8904331919158428</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.7611679681280293</v>
+        <v>0.8887329940348568</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.003507695530690376</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-0.01897098253234956</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.04561404668429409</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-0.0850465900827078</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-0.1339562629213492</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>-0.1792157431427095</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-0.2068581569140233</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-0.221223295567897</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-0.2324535871513658</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-0.2355756160406584</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.2361081697508609</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>-0.2360117212877751</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>-0.2350691473018885</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>-0.2335906660814752</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>1800AAACLP</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>1800#UF</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.06466217908980555</v>
+      </c>
       <c r="C24" t="n">
-        <v>0.08372118246133198</v>
+        <v>-0.1607675047543919</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.03884861077623082</v>
+        <v>-0.06376184710068949</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.04203730190356185</v>
+        <v>-0.009338706440280588</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.08190691698283314</v>
+        <v>0.128665363535821</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.06842034902875715</v>
+        <v>0.8366110212854923</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00491246012149065</v>
+        <v>0.8898691968582535</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02490740476356687</v>
+        <v>0.893889824546991</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03510300032011199</v>
+        <v>0.8972800819092672</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2116218526460481</v>
+        <v>0.9134374332371726</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02973357416606827</v>
+        <v>0.8746697382814665</v>
       </c>
       <c r="M24" t="n">
-        <v>0.05543035883193495</v>
+        <v>0.8831408460294499</v>
       </c>
       <c r="N24" t="n">
-        <v>0.06676522320774067</v>
+        <v>0.8688565082256445</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.01155197542651437</v>
+        <v>0.8746154677863773</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.01295284012121251</v>
+        <v>0.8744320443701811</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1070054608125489</v>
+        <v>-0.1303955873687392</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.2378112332354728</v>
+        <v>-0.09695338642581652</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.01034021551194095</v>
+        <v>-0.03983523922756073</v>
       </c>
       <c r="T24" t="n">
-        <v>0.7454908446792602</v>
+        <v>0.0546144214870664</v>
       </c>
       <c r="U24" t="n">
-        <v>0.9559404986132218</v>
+        <v>0.8210120982964164</v>
       </c>
       <c r="V24" t="n">
-        <v>0.9870443277181717</v>
+        <v>0.8675945949568593</v>
       </c>
       <c r="W24" t="n">
-        <v>0.997250803030574</v>
+        <v>0.9664347964334774</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.9912373808051143</v>
+        <v>0.9491294015235042</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.9707244525227952</v>
+        <v>0.9314097449610558</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.9586182047486504</v>
+        <v>0.9272288104544484</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.9006172322646014</v>
+        <v>0.9142205205177184</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.8573702794024025</v>
+        <v>0.8726426840239783</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.8039250831389083</v>
+        <v>0.8699877398453797</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>-0.06062022424728734</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>-0.07509542627866359</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-0.09432936491633304</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>-0.1052094518165826</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>-0.12370188677026</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>-0.1560275511408044</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>-0.1762078788160241</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>-0.1862051266009643</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>-0.1931282881495962</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>-0.1943631165716561</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>-0.1943361827187797</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>-0.1928896419210118</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>-0.1914554427460322</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>-0.1896025222802752</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2520AAACLP</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
+          <t>2520#UF</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1433392667548352</v>
+      </c>
       <c r="C25" t="n">
-        <v>0.1080130644860972</v>
+        <v>-0.1127991311094477</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.01114332757054903</v>
+        <v>-0.03500815300362625</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.02364145202327885</v>
+        <v>-0.01877668265151865</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.09012680215900483</v>
+        <v>0.1662968996022767</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0701442779978108</v>
+        <v>0.8759980612621021</v>
       </c>
       <c r="H25" t="n">
-        <v>0.006112502480624306</v>
+        <v>0.9203452284223754</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02469511172193915</v>
+        <v>0.9230387447466154</v>
       </c>
       <c r="J25" t="n">
-        <v>0.04572780096547065</v>
+        <v>0.9432340522029371</v>
       </c>
       <c r="K25" t="n">
-        <v>0.218813921862928</v>
+        <v>0.9500366809425755</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03931261839424682</v>
+        <v>0.9375656713011487</v>
       </c>
       <c r="M25" t="n">
-        <v>0.06448518366634629</v>
+        <v>0.9454781661518715</v>
       </c>
       <c r="N25" t="n">
-        <v>0.08234964346976713</v>
+        <v>0.9386937530334137</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0005968512582986054</v>
+        <v>0.9372361644860473</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.001159184624378338</v>
+        <v>0.9367601157346567</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1123641642270198</v>
+        <v>-0.08576532166940373</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.2320212040063583</v>
+        <v>0.02436224810921699</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.02870473781116594</v>
+        <v>0.005969803061330236</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7055524603406024</v>
+        <v>0.1681475219317146</v>
       </c>
       <c r="U25" t="n">
-        <v>0.9195963244234679</v>
+        <v>0.7497434855495764</v>
       </c>
       <c r="V25" t="n">
-        <v>0.9594229659211178</v>
+        <v>0.8193631269345443</v>
       </c>
       <c r="W25" t="n">
-        <v>0.9790541865981226</v>
+        <v>0.9452545052092874</v>
       </c>
       <c r="X25" t="n">
-        <v>0.9912373808051143</v>
+        <v>0.9491294015235043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.9938887739972916</v>
+        <v>0.9799258778219944</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.9877098716443018</v>
+        <v>0.9769037875126202</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.9497268679030283</v>
+        <v>0.9622832307870252</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.9172387444382093</v>
+        <v>0.9495754099383846</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.8746143631982759</v>
+        <v>0.9481171979719019</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>-0.05975374956211525</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>-0.07489777345298852</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>-0.09478656058352379</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>-0.105189263126015</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>-0.1245540276438524</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>-0.1619101178745053</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>-0.1866267120463337</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>-0.1996740372989744</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>-0.2099517745135503</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>-0.2128511187989155</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>-0.2133599189802207</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>-0.21335472255999</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>-0.2125429799744679</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>-0.2112459655658384</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>3240AAACLP</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>3240#UF</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1765537799712086</v>
+      </c>
       <c r="C26" t="n">
-        <v>0.1235122194235965</v>
+        <v>-0.1198429218213555</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00941616737319388</v>
+        <v>-0.03768220228047593</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.01017200307842967</v>
+        <v>-0.04713355654642034</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.09643964673943307</v>
+        <v>0.121146033845344</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.07230284939854105</v>
+        <v>0.8571993914733422</v>
       </c>
       <c r="H26" t="n">
-        <v>0.004812946789439138</v>
+        <v>0.9124907863880702</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02281616436912835</v>
+        <v>0.9265348896464286</v>
       </c>
       <c r="J26" t="n">
-        <v>0.05174551726563679</v>
+        <v>0.9418490485628073</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2202448809517</v>
+        <v>0.9540116742321085</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0458545385797339</v>
+        <v>0.9505501699772563</v>
       </c>
       <c r="M26" t="n">
-        <v>0.06974953275168924</v>
+        <v>0.9571115531217241</v>
       </c>
       <c r="N26" t="n">
-        <v>0.09284113789885932</v>
+        <v>0.9530274408722175</v>
       </c>
       <c r="O26" t="n">
-        <v>0.009525261489272314</v>
+        <v>0.949171382245007</v>
       </c>
       <c r="P26" t="n">
-        <v>0.007514408514462551</v>
+        <v>0.9486192839015948</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.1151559640923561</v>
+        <v>-0.05868295086099734</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.2234429424312135</v>
+        <v>-0.009639548040400086</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.0392034908187588</v>
+        <v>-0.008796738245635597</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6693926190242994</v>
+        <v>0.1181369052328551</v>
       </c>
       <c r="U26" t="n">
-        <v>0.8798794780991375</v>
+        <v>0.7216144361545915</v>
       </c>
       <c r="V26" t="n">
-        <v>0.9247073380748743</v>
+        <v>0.7830215716414682</v>
       </c>
       <c r="W26" t="n">
-        <v>0.9511599037487073</v>
+        <v>0.9200402579208109</v>
       </c>
       <c r="X26" t="n">
-        <v>0.9707244525227952</v>
+        <v>0.9314097449610558</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.9938887739972916</v>
+        <v>0.9799258778219944</v>
       </c>
       <c r="Z26" t="n">
         <v>1</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.9989258807866523</v>
+        <v>0.9917105514989994</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.978461257235052</v>
+        <v>0.9681711408114173</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.9555645599831003</v>
+        <v>0.9535967871179986</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.9227252993365082</v>
+        <v>0.9520787328142846</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>-0.01735329903012516</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>-0.0301046561471436</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>-0.04893032628617593</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>-0.06734865968436481</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>-0.09202000819375421</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>-0.1270687892243493</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>-0.1510919946218014</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>-0.1645466992372847</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>-0.1763327978021919</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>-0.1805566149916013</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>-0.1816028079848228</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>-0.1834031977210027</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>-0.1835831984373583</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>-0.1833217329703313</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>3600AAACLP</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+          <t>3600#UF</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1601594764558028</v>
+      </c>
       <c r="C27" t="n">
-        <v>0.1291864462603457</v>
+        <v>-0.1295675805387267</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01769439691861457</v>
+        <v>-0.01607379060221403</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.004730547754477009</v>
+        <v>-0.01460232096393026</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.09881280821702176</v>
+        <v>0.1433157411538533</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.07311597932039596</v>
+        <v>0.8640918047179666</v>
       </c>
       <c r="H27" t="n">
-        <v>0.004017487247070559</v>
+        <v>0.9155206177582228</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02180580220369579</v>
+        <v>0.9285547374942931</v>
       </c>
       <c r="J27" t="n">
-        <v>0.05384231355320668</v>
+        <v>0.9444359318061579</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2198643765719355</v>
+        <v>0.9571137234976349</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04834193302704616</v>
+        <v>0.9584463169704327</v>
       </c>
       <c r="M27" t="n">
-        <v>0.07155449572659336</v>
+        <v>0.9622533467334731</v>
       </c>
       <c r="N27" t="n">
-        <v>0.09674720607366417</v>
+        <v>0.9564600178367891</v>
       </c>
       <c r="O27" t="n">
-        <v>0.01310539264680873</v>
+        <v>0.9574748021039571</v>
       </c>
       <c r="P27" t="n">
-        <v>0.01099710636126477</v>
+        <v>0.9570631525023788</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.115892975630907</v>
+        <v>-0.03833037633093566</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.2189567649546078</v>
+        <v>0.02630423418531776</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.04297087663269144</v>
+        <v>-0.002392533093061043</v>
       </c>
       <c r="T27" t="n">
-        <v>0.6525457605682139</v>
+        <v>0.1204862180727369</v>
       </c>
       <c r="U27" t="n">
-        <v>0.8603869626173108</v>
+        <v>0.7102416315936029</v>
       </c>
       <c r="V27" t="n">
-        <v>0.9069530346729813</v>
+        <v>0.7778868423135807</v>
       </c>
       <c r="W27" t="n">
-        <v>0.9360749825898249</v>
+        <v>0.9145477247699488</v>
       </c>
       <c r="X27" t="n">
-        <v>0.9586182047486503</v>
+        <v>0.9272288104544483</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.9877098716443018</v>
+        <v>0.9769037875126202</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.9989258807866523</v>
+        <v>0.9917105514989992</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.9869743500198537</v>
+        <v>0.9812210244541135</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.9681945644541613</v>
+        <v>0.9684866287499397</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.939590222799619</v>
+        <v>0.9670013522470742</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.00494946513914899</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>-0.01043703323259042</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>-0.03551596190791671</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>-0.0670092503455052</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>-0.0961089875629537</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>-0.1274859001519938</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>-0.1480964234358333</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>-0.1591845874708257</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>-0.1682337962196885</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>-0.1710216138584673</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>-0.1715904925848737</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>-0.1720577150912518</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>-0.1716331089104687</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>-0.1708112755860611</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>5400AAACLP</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>5400#UF</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1202166935160772</v>
+      </c>
       <c r="C28" t="n">
-        <v>0.1460669273735279</v>
+        <v>-0.1312716281171332</v>
       </c>
       <c r="D28" t="n">
-        <v>0.04559726028324285</v>
+        <v>-0.02820653264952025</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01382138041139985</v>
+        <v>-0.005359213700397582</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1055336668657293</v>
+        <v>0.1714756574229146</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.07499337761930736</v>
+        <v>0.8374711551147354</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0008018977619811596</v>
+        <v>0.8910184723775526</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01770734995211601</v>
+        <v>0.9045010545622355</v>
       </c>
       <c r="J28" t="n">
-        <v>0.05982094079798057</v>
+        <v>0.9257380951304035</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2145515730852925</v>
+        <v>0.9405039935769262</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05603226513367465</v>
+        <v>0.9373872155981651</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07637939995481476</v>
+        <v>0.9399086217453946</v>
       </c>
       <c r="N28" t="n">
-        <v>0.1084156730046331</v>
+        <v>0.9285976245935094</v>
       </c>
       <c r="O28" t="n">
-        <v>0.02509437193771247</v>
+        <v>0.9338643348876381</v>
       </c>
       <c r="P28" t="n">
-        <v>0.02268703143676431</v>
+        <v>0.9337503967926583</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.1164923278363155</v>
+        <v>-0.03441687922880453</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.1995643346251348</v>
+        <v>0.04078572076080148</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.05446083574622784</v>
+        <v>0.0233805135443767</v>
       </c>
       <c r="T28" t="n">
-        <v>0.5844692034713665</v>
+        <v>0.1667164679027739</v>
       </c>
       <c r="U28" t="n">
-        <v>0.7790001857997014</v>
+        <v>0.7102834172597517</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8304784412626149</v>
+        <v>0.8057564228745524</v>
       </c>
       <c r="W28" t="n">
-        <v>0.8682032408834417</v>
+        <v>0.9089534323626696</v>
       </c>
       <c r="X28" t="n">
-        <v>0.9006172322646014</v>
+        <v>0.9142205205177182</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.949726867903028</v>
+        <v>0.9622832307870252</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.978461257235052</v>
+        <v>0.9681711408114173</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.9869743500198537</v>
+        <v>0.9812210244541135</v>
       </c>
       <c r="AB28" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.9958343187849873</v>
+        <v>0.9774499552266432</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.9824191957208749</v>
+        <v>0.9755130711147</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.02311386367665294</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>-0.0005881135486903484</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>-0.04199663714289202</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>-0.1007622084153266</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>-0.1442957288857437</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>-0.1774244184453129</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>-0.1963836013670628</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>-0.2050335155129179</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>-0.2097904991940506</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>-0.2095682786392092</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>-0.2089984355416972</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>-0.2058517764114191</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>-0.2035422798286335</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>-0.2008079309977383</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>7200AAACLP</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
+          <t>7200#UF</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1969258699136168</v>
+      </c>
       <c r="C29" t="n">
-        <v>0.1538026578106408</v>
+        <v>-0.1015341837561303</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06077167560342358</v>
+        <v>-0.0317289080725403</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02408803877153105</v>
+        <v>-0.0367574496782493</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1081601336213949</v>
+        <v>0.1851641940482036</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.07525120306507142</v>
+        <v>0.85050951378735</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.001115854715603572</v>
+        <v>0.8907912264378904</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01512997063637802</v>
+        <v>0.9038735755819589</v>
       </c>
       <c r="J29" t="n">
-        <v>0.06243295547476128</v>
+        <v>0.9264704372185439</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2089896436543751</v>
+        <v>0.9338846974468176</v>
       </c>
       <c r="L29" t="n">
-        <v>0.05971923529646414</v>
+        <v>0.9377443498217883</v>
       </c>
       <c r="M29" t="n">
-        <v>0.07818301019261285</v>
+        <v>0.9312811536302915</v>
       </c>
       <c r="N29" t="n">
-        <v>0.1137178762413487</v>
+        <v>0.9281239119139766</v>
       </c>
       <c r="O29" t="n">
-        <v>0.03155344699072717</v>
+        <v>0.9332901886231424</v>
       </c>
       <c r="P29" t="n">
-        <v>0.02900528247371335</v>
+        <v>0.9331724596590235</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.1154863277352789</v>
+        <v>-0.03750175181501104</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.1862219149236764</v>
+        <v>0.09433045613890577</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.06014047314540923</v>
+        <v>0.09147281142015959</v>
       </c>
       <c r="T29" t="n">
-        <v>0.5394437960412254</v>
+        <v>0.2329411215828188</v>
       </c>
       <c r="U29" t="n">
-        <v>0.7240453005346388</v>
+        <v>0.6509573643248825</v>
       </c>
       <c r="V29" t="n">
-        <v>0.7776359891311042</v>
+        <v>0.7570956783206247</v>
       </c>
       <c r="W29" t="n">
-        <v>0.8197591745961811</v>
+        <v>0.8904331919158426</v>
       </c>
       <c r="X29" t="n">
-        <v>0.8573702794024025</v>
+        <v>0.8726426840239783</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.9172387444382093</v>
+        <v>0.9495754099383846</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.9555645599831003</v>
+        <v>0.9535967871179986</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.9681945644541613</v>
+        <v>0.9684866287499397</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.9958343187849873</v>
+        <v>0.9774499552266435</v>
       </c>
       <c r="AC29" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.9953491986333731</v>
+        <v>0.9999591346020203</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.0748869430699156</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.04789849579201679</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>-0.005739850678547127</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>-0.1011562585557186</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>-0.1793300898626591</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>-0.2238932695920615</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>-0.2474249688542251</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>-0.2578168848513577</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>-0.2631587449965741</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>-0.2625208824791637</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>-0.2616813582607596</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>-0.2573690803570248</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>-0.2542969179670329</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>-0.2506981819014967</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>10800AAACLP</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
+          <t>10800#UF</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2001196651944672</v>
+      </c>
       <c r="C30" t="n">
-        <v>0.1605630506866122</v>
+        <v>-0.1000782711520776</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0762456538610861</v>
+        <v>-0.03187319889219187</v>
       </c>
       <c r="E30" t="n">
-        <v>0.03470858940790048</v>
+        <v>-0.03817676608547307</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.1099660049578581</v>
+        <v>0.1854988959568987</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.0748495449562354</v>
+        <v>0.8502313144405782</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.003145982656314299</v>
+        <v>0.8899025154954526</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01226125814375526</v>
+        <v>0.9029738097303303</v>
       </c>
       <c r="J30" t="n">
-        <v>0.06461655306964181</v>
+        <v>0.9256021604016861</v>
       </c>
       <c r="K30" t="n">
-        <v>0.201205668062907</v>
+        <v>0.9326950182368748</v>
       </c>
       <c r="L30" t="n">
-        <v>0.06307344551157505</v>
+        <v>0.9368174678926733</v>
       </c>
       <c r="M30" t="n">
-        <v>0.07937747347089481</v>
+        <v>0.9299950782144919</v>
       </c>
       <c r="N30" t="n">
-        <v>0.1182840627851737</v>
+        <v>0.927183411140277</v>
       </c>
       <c r="O30" t="n">
-        <v>0.03808806318626069</v>
+        <v>0.9323214641626417</v>
       </c>
       <c r="P30" t="n">
-        <v>0.03541426759225355</v>
+        <v>0.9322036853844436</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.1133804835718064</v>
+        <v>-0.03758570212236102</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.1704215767241478</v>
+        <v>0.09638620981113559</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.065559760879378</v>
+        <v>0.09423081888168457</v>
       </c>
       <c r="T30" t="n">
-        <v>0.4870387107131694</v>
+        <v>0.2354937673405794</v>
       </c>
       <c r="U30" t="n">
-        <v>0.6594604283263694</v>
+        <v>0.6478001472339786</v>
       </c>
       <c r="V30" t="n">
-        <v>0.7147863188706308</v>
+        <v>0.7542362527258561</v>
       </c>
       <c r="W30" t="n">
-        <v>0.7611679681280292</v>
+        <v>0.8887329940348568</v>
       </c>
       <c r="X30" t="n">
-        <v>0.8039250831389083</v>
+        <v>0.8699877398453797</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.8746143631982759</v>
+        <v>0.9481171979719019</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.9227252993365082</v>
+        <v>0.9520787328142846</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.939590222799619</v>
+        <v>0.9670013522470743</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.9824191957208749</v>
+        <v>0.9755130711147</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.9953491986333731</v>
+        <v>0.9999591346020203</v>
       </c>
       <c r="AD30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.0771032989909759</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.04999725884184966</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>-0.004127923014233478</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>-0.1010715808073031</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>-0.1807048470434811</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>-0.2257342861782051</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>-0.2494481364118672</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>-0.259908790556746</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>-0.2652732816522173</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>-0.2646186264854751</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>-0.2637683034369971</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>-0.2594095061514347</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>-0.2563069630109976</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>-0.2526738206205328</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>30#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.08820188174013854</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1056328399517429</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.02873755939129932</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.01946151041196422</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.09233012994926107</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.00402437720113709</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.001509814128858987</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.01342177539723866</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0002358172416490899</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.002602768940521073</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.02445148680900134</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.003748508394164082</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.009132948704664015</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.009433990071964278</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.01058888127712831</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.1655087071692405</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.1297682302590472</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.3329755882868314</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.2509193186633683</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.05912619928804203</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.06567388760087146</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.0035076955306904</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.06062022424728736</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.05975374956211528</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.01735329903012515</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.004949465139149017</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.02311386367665293</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.0748869430699156</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.0771032989909759</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.9832137600476499</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.8664142558038602</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0.430472041841848</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0.05588519746742628</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.03089115396136983</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.07251366587226735</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-0.09821727449831484</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-0.1265405086356791</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.1408141218408491</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-0.1454534970138981</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>-0.1580825013446306</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>-0.1636233321452259</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>-0.1686333397177057</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>90#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.09044377073762758</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.08768086306010059</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.01215002569206822</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.03953069137551771</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.06744281191679263</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.007308540420730647</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.01628807656532568</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0.00165955173354109</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-0.01690247799084829</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.01278008032547681</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.008735675150411277</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.01719357526311097</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.0168897054122772</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-0.0002069724313907844</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.0007661454879237691</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.1419489882309823</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.09108973717988117</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.3014116336771529</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.212665557640383</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.03664841596671749</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.02187290161350339</v>
+      </c>
+      <c r="W32" t="n">
+        <v>-0.01897098253234956</v>
+      </c>
+      <c r="X32" t="n">
+        <v>-0.07509542627866359</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>-0.07489777345298852</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>-0.03010465614714357</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>-0.01043703323259041</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>-0.0005881135486903365</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.04789849579201678</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.04999725884184963</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.9832137600476499</v>
+      </c>
+      <c r="AF32" t="n">
         <v>0.9999999999999989</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.942757937433265</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.5844434570283067</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.216468859214631</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.1051850706049264</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.03827620239137416</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>-0.007907364657488916</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>-0.06374277921089874</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>-0.09446094905117282</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>-0.1049334778119909</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>-0.1350060040587211</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>-0.1491110128085543</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>-0.1624982905189866</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>180#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.08877475533961278</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.04115650241248085</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.02028474860014745</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.07546340775295311</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.01085149046793456</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.0264793136760735</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-0.04482423758118796</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-0.02756744008869634</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0.04621922490128734</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.03867172539095273</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.01767567457128788</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.03677296388697991</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.02578966117825668</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-0.01413983040066142</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-0.01361325416634954</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.07929881202296352</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.004064178928155256</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.2032583031529398</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.1109840252639174</v>
+      </c>
+      <c r="U33" t="n">
+        <v>-0.008017305578646872</v>
+      </c>
+      <c r="V33" t="n">
+        <v>-0.06153190706528801</v>
+      </c>
+      <c r="W33" t="n">
+        <v>-0.0456140466842941</v>
+      </c>
+      <c r="X33" t="n">
+        <v>-0.09432936491633306</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>-0.09478656058352382</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>-0.0489303262861759</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>-0.03551596190791671</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>-0.04199663714289199</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>-0.005739850678547127</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>-0.0041279230142335</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.8664142558038603</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.942757937433265</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.81933586649961</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.5033985034355072</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.3611324810621243</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.2557079645818669</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.1769104550685887</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.07606784904012302</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.01793144435143255</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>-0.002349257898466801</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>-0.06199453887872731</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>-0.09074718425770639</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>-0.1185422426257922</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>360#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.07356719788674235</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.06206454213343299</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.06566206008031332</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.1234049894330285</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.1024858199326768</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.05185470313234827</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.07569741370665747</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.06244236744563285</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.08553252266809994</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.07156796568124217</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0506905117674715</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.05200912750249946</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.02548040026613957</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.02584185777172473</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.02630390889129321</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.06442125915322741</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.1660502658226534</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.06036423685289573</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-0.134588144611179</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.08680546654647935</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.1926083026823618</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-0.08504659008270779</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.1052094518165826</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.1051892631260151</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.06734865968436481</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-0.06700925034550517</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-0.1007622084153266</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.1011562585557186</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.1010715808073031</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.4304720418418481</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.5844434570283067</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0.81933586649961</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0.8870554501012944</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0.7503631818478913</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0.6191493422978938</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0.5122876572464705</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0.3675949315969963</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0.2805813998758467</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0.2496315707100938</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0.1568299264821783</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0.1111354300250531</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0.06635603612915018</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>720#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.09591589880388676</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.119933701812872</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.04548678325508267</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.1463428678872813</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.1720208107915241</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.07091076550358846</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-0.08344096597899089</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0.08461468111760376</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-0.1158770809222237</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.09133191681719939</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.06288298491932379</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.05177072964561217</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.02135941772073063</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-0.02888599073712563</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-0.03001693905004144</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-0.1544176776732706</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-0.268675900389442</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-0.2912126215345595</v>
+      </c>
+      <c r="T35" t="n">
+        <v>-0.3581435310394285</v>
+      </c>
+      <c r="U35" t="n">
+        <v>-0.1463287641434534</v>
+      </c>
+      <c r="V35" t="n">
+        <v>-0.2581285227131317</v>
+      </c>
+      <c r="W35" t="n">
+        <v>-0.1339562629213492</v>
+      </c>
+      <c r="X35" t="n">
+        <v>-0.12370188677026</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>-0.1245540276438524</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>-0.09202000819375421</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>-0.09610898756295372</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>-0.1442957288857437</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>-0.1793300898626592</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>-0.1807048470434811</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.05588519746742628</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.216468859214631</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.5033985034355072</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.8870554501012944</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.9587101002281706</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.8789320638080419</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.800593558034694</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.6822768240952356</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.6058036210429032</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.5777575096403672</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.4911857271519051</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.44724947939926</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.4033816136036328</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>1080#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.1423411928487723</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.1129642040402703</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.002165433182188471</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.1539009393371153</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.1765719571751612</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.08763683144814519</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.09104236341970602</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0.1024135277078937</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-0.1412445473355016</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.1072455002732484</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.07313148998694724</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.06066676066739694</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.0330347700593124</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-0.03988744807430625</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-0.04109496064021727</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-0.157006329213744</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-0.2788669186021564</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-0.3603443597123441</v>
+      </c>
+      <c r="T36" t="n">
+        <v>-0.4442472773867866</v>
+      </c>
+      <c r="U36" t="n">
+        <v>-0.1745237239411459</v>
+      </c>
+      <c r="V36" t="n">
+        <v>-0.2693348942322275</v>
+      </c>
+      <c r="W36" t="n">
+        <v>-0.1792157431427095</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-0.1560275511408043</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>-0.1619101178745053</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>-0.1270687892243493</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>-0.1274859001519937</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>-0.1774244184453129</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>-0.2238932695920615</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>-0.2257342861782052</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>-0.0308911539613698</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.1051850706049264</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.3611324810621243</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.7503631818478912</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.9587101002281706</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.9780831663533204</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.9374618966609274</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.8611235783524253</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.8059134425864504</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.7847974494290163</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.7171508307534473</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.6815527935948873</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.6452484949720616</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>1440#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.1739893091625292</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.09766180327294942</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.03927984358905353</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.1528553235690305</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.1670527628579021</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.09756881938680988</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-0.09499582455574403</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-0.1129557615011494</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-0.1557569651703073</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.1160039213035796</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.07998677944891321</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.06791103024136817</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.04378375332523831</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-0.0490787932722503</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-0.05023907957543323</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-0.1455955201483183</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-0.2679520384409143</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-0.3831662307693637</v>
+      </c>
+      <c r="T37" t="n">
+        <v>-0.4788134697480031</v>
+      </c>
+      <c r="U37" t="n">
+        <v>-0.186898909927781</v>
+      </c>
+      <c r="V37" t="n">
+        <v>-0.2638413208032244</v>
+      </c>
+      <c r="W37" t="n">
+        <v>-0.2068581569140234</v>
+      </c>
+      <c r="X37" t="n">
+        <v>-0.1762078788160241</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>-0.1866267120463337</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>-0.1510919946218014</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>-0.1480964234358333</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>-0.1963836013670628</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>-0.2474249688542251</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>-0.2494481364118673</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>-0.07251366587226732</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.03827620239137416</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.2557079645818669</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.6191493422978938</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.8789320638080419</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.9780831663533204</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.9893908662704743</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.9480989652868608</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.911510092694345</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.8966271921859241</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.8465266409829395</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.8189635618729317</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.7901585863450805</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>1800#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.192036890431505</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.08410199424197271</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.06428462876712056</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1483516038886292</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.155724938468245</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.1022450142085788</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.09571077108400816</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.1177715558917673</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.1622708894429837</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.1194660644483406</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.08316709051145402</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.07173405000311923</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.05066164089772756</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-0.05465430885907492</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-0.05574728813000904</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-0.1335025095275364</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-0.2530973133990431</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-0.3883677306263639</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-0.4900297418688483</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-0.1908090137804535</v>
+      </c>
+      <c r="V38" t="n">
+        <v>-0.2532849350303206</v>
+      </c>
+      <c r="W38" t="n">
+        <v>-0.221223295567897</v>
+      </c>
+      <c r="X38" t="n">
+        <v>-0.1862051266009643</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>-0.1996740372989744</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>-0.1645466992372847</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>-0.1591845874708256</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>-0.2050335155129179</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>-0.2578168848513577</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>-0.2599087905567459</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>-0.09821727449831483</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>-0.007907364657488898</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.1769104550685887</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.5122876572464704</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.800593558034694</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.9374618966609274</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.9893908662704743</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.9842352594576707</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.9615892952920621</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.9514417743554886</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.9148838063716089</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.8936420359821745</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.8708167399357125</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2520#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.2085583211772837</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.06513478419968172</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.09289893046207558</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.138652471329706</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.1373957827328276</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.10506082407158</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-0.09392332520982187</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-0.1203394910805871</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.1656353970099193</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.1203316762644385</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0847574006666407</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.07444392973059916</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.05769019592386806</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-0.05996953687661762</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-0.06094852725445866</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-0.1149261215689154</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-0.2277050006490725</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-0.383441027492597</v>
+      </c>
+      <c r="T39" t="n">
+        <v>-0.4895376534184709</v>
+      </c>
+      <c r="U39" t="n">
+        <v>-0.1901201804871977</v>
+      </c>
+      <c r="V39" t="n">
+        <v>-0.2331976334394161</v>
+      </c>
+      <c r="W39" t="n">
+        <v>-0.2324535871513658</v>
+      </c>
+      <c r="X39" t="n">
+        <v>-0.1931282881495962</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>-0.2099517745135503</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>-0.176332797802192</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>-0.1682337962196885</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>-0.2097904991940506</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>-0.2631587449965741</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>-0.2652732816522174</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>-0.1265405086356791</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>-0.06374277921089877</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.076067849040123</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.3675949315969962</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.6822768240952356</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.8611235783524253</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.9480989652868608</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.9842352594576707</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.9999999999999992</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.9949779580086354</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.9908864363372476</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.9718640333315007</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.9589272011205012</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.9440363528406723</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>3240#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.2149938939330899</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.05349120267858651</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.1078033471012783</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.1312339825232321</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.1250950434909873</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.1051960127300117</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.09161055908338686</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-0.1201230633874336</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-0.1652376370541977</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.1191517350654675</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.08448534865896561</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.07495044905470535</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.0608740872527431</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-0.06215257052240252</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-0.06305342438249312</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-0.1028174755527022</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-0.2101522438918925</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-0.3752991108037535</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-0.4824209619378559</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-0.1870814412848552</v>
+      </c>
+      <c r="V40" t="n">
+        <v>-0.2185810539133301</v>
+      </c>
+      <c r="W40" t="n">
+        <v>-0.2355756160406583</v>
+      </c>
+      <c r="X40" t="n">
+        <v>-0.1943631165716561</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>-0.2128511187989155</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>-0.1805566149916013</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>-0.1710216138584673</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>-0.2095682786392092</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>-0.2625208824791637</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>-0.264618626485475</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>-0.1408141218408491</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>-0.09446094905117282</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.01793144435143255</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.2805813998758466</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.6058036210429032</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.8059134425864504</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.9115100926943448</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.9615892952920621</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.9949779580086354</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.9993928539942087</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.9905597522153832</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.982503396445086</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.9723105967752372</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>3600#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.2167260466452375</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.04931238886742638</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.1127385241863546</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1283430427837216</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.12051707021248</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.1049960919024285</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-0.09059056195909292</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-0.1197656124941503</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-0.1647106411620061</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.1184611912035965</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.08419252983636792</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.07495124868335766</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.06183998358447638</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-0.06276731801709438</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-0.06363886375479516</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-0.09836183255513756</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-0.2035464338592083</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-0.3715807211887142</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-0.4788060300810879</v>
+      </c>
+      <c r="U41" t="n">
+        <v>-0.185583273349992</v>
+      </c>
+      <c r="V41" t="n">
+        <v>-0.212978757510001</v>
+      </c>
+      <c r="W41" t="n">
+        <v>-0.2361081697508609</v>
+      </c>
+      <c r="X41" t="n">
+        <v>-0.1943361827187797</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>-0.2133599189802207</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>-0.181602807984823</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>-0.1715904925848738</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>-0.2089984355416972</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>-0.2616813582607595</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>-0.2637683034369971</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>-0.1454534970138981</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>-0.1049334778119909</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>-0.002349257898466804</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.2496315707100938</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.5777575096403673</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.7847974494290163</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.8966271921859241</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.9514417743554886</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.9908864363372476</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.9993928539942087</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.9947344546154312</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.9883958987741399</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.9798624303938479</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>5400#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.2202879716892365</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.0366731362432966</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.1264636292928137</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1189356070462984</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.1061961953297859</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.1036700260130574</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-0.08695386757593238</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-0.1178720548975253</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-0.1620009095563077</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.1155970549873146</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.08274008719221761</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.07442810987010119</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.06424809646770745</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-0.06413675844933303</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-0.06491598567074465</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-0.08456614115127842</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-0.1826771712373181</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-0.3580217979410902</v>
+      </c>
+      <c r="T42" t="n">
+        <v>-0.4647919278034439</v>
+      </c>
+      <c r="U42" t="n">
+        <v>-0.1798683708864441</v>
+      </c>
+      <c r="V42" t="n">
+        <v>-0.1949988232693561</v>
+      </c>
+      <c r="W42" t="n">
+        <v>-0.2360117212877751</v>
+      </c>
+      <c r="X42" t="n">
+        <v>-0.1928896419210118</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>-0.21335472255999</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>-0.1834031977210028</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>-0.1720577150912518</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>-0.2058517764114191</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>-0.2573690803570248</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>-0.2594095061514348</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>-0.1580825013446306</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>-0.1350060040587212</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>-0.06199453887872732</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.1568299264821783</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.4911857271519051</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.7171508307534473</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.8465266409829395</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.9148838063716089</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.9718640333315007</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.9905597522153832</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.9947344546154313</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.9987590460882679</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.9951666717770208</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>7200#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.2211791034310714</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.03039195917686087</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.132654655650551</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.1139128143712387</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.09883066428849532</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.1026330183933597</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-0.08485754579008108</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-0.1165053247150937</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.1600695845999374</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.1137673225534657</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.08172129771037798</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.07389275717171419</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.06517585653970238</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-0.06456062364876156</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-0.06529204808830223</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-0.07754307155125181</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-0.1718399175940453</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-0.3500718010382422</v>
+      </c>
+      <c r="T43" t="n">
+        <v>-0.4562131460768168</v>
+      </c>
+      <c r="U43" t="n">
+        <v>-0.1764080698719696</v>
+      </c>
+      <c r="V43" t="n">
+        <v>-0.1855210479680851</v>
+      </c>
+      <c r="W43" t="n">
+        <v>-0.2350691473018886</v>
+      </c>
+      <c r="X43" t="n">
+        <v>-0.1914554427460322</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>-0.2125429799744679</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>-0.1835831984373584</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>-0.1716331089104687</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>-0.2035422798286334</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>-0.2542969179670329</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>-0.2563069630109976</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>-0.1636233321452259</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>-0.1491110128085543</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>-0.09074718425770641</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.1111354300250531</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.44724947939926</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.6815527935948873</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.8189635618729316</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.8936420359821745</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.9589272011205013</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.982503396445086</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.9883958987741399</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.9987590460882679</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.9988224130662747</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>10800#CLP#AAA</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.2215175574801173</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0.02420078914610729</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.1383702499152222</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.1087484748846632</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.09141788119764914</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.1013787531155775</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-0.08261378657921303</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-0.1148967648490801</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-0.1578068677960102</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.1117142687877884</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.08053475144813474</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.07319600076454502</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.06592518118409062</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-0.06482082808838725</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-0.06550395341399048</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-0.07051801525476939</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-0.1608716405317429</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-0.3414914860641792</v>
+      </c>
+      <c r="T44" t="n">
+        <v>-0.4467657598176905</v>
+      </c>
+      <c r="U44" t="n">
+        <v>-0.1726164427350155</v>
+      </c>
+      <c r="V44" t="n">
+        <v>-0.1758459125659302</v>
+      </c>
+      <c r="W44" t="n">
+        <v>-0.2335906660814752</v>
+      </c>
+      <c r="X44" t="n">
+        <v>-0.1896025222802752</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>-0.2112459655658385</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>-0.1833217329703313</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>-0.1708112755860611</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>-0.2008079309977383</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>-0.2506981819014967</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>-0.2526738206205328</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>-0.1686333397177057</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>-0.1624982905189866</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>-0.1185422426257923</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.06635603612915016</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.4033816136036328</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.6452484949720616</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.7901585863450805</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.8708167399357125</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.9440363528406723</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.9723105967752372</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.9798624303938479</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.9951666717770206</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.9988224130662747</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
